--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint_4_burndown_chart_Sprint_5_dias.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint_4_burndown_chart_Sprint_5_dias.xlsx
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -106,6 +106,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -243,8 +248,8 @@
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -368,11 +373,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1561520085"/>
-        <c:axId val="2026218625"/>
+        <c:axId val="1885565248"/>
+        <c:axId val="370475984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1561520085"/>
+        <c:axId val="1885565248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,10 +429,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2026218625"/>
+        <c:crossAx val="370475984"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2026218625"/>
+        <c:axId val="370475984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,7 +496,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1561520085"/>
+        <c:crossAx val="1885565248"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -861,10 +866,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="13">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" s="14">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -873,7 +878,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="18">
         <f t="shared" ref="I5:I16" si="1">SUM(C5:H5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -886,19 +891,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="13">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="19"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="20">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -911,11 +916,11 @@
         <v>8</v>
       </c>
       <c r="B7" s="13">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="19">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -923,7 +928,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -936,19 +941,19 @@
         <v>9</v>
       </c>
       <c r="B8" s="13">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="17"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
+        <v>2.0</v>
+      </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -964,10 +969,10 @@
         <v>2.0</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="19">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
         <v>2.0</v>
       </c>
-      <c r="E9" s="19"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -986,10 +991,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="13">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="19">
         <v>4.0</v>
       </c>
@@ -1011,19 +1016,19 @@
         <v>12</v>
       </c>
       <c r="B11" s="13">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="F11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19">
+        <v>4.0</v>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1036,19 +1041,19 @@
         <v>13</v>
       </c>
       <c r="B12" s="13">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="19">
-        <v>3.0</v>
-      </c>
+      <c r="E12" s="19"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="19">
+        <v>4.0</v>
+      </c>
       <c r="H12" s="17"/>
       <c r="I12" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1064,16 +1069,16 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
+        <v>2.0</v>
+      </c>
       <c r="H13" s="17"/>
       <c r="I13" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1088,17 +1093,17 @@
       <c r="B14" s="13">
         <v>2.0</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="19">
+        <v>2.0</v>
+      </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="19">
-        <v>3.0</v>
-      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1111,15 +1116,15 @@
         <v>16</v>
       </c>
       <c r="B15" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>2.0</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2.0</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="19">
-        <v>2.0</v>
-      </c>
+      <c r="G15" s="19"/>
       <c r="H15" s="17"/>
       <c r="I15" s="20">
         <f t="shared" si="1"/>
@@ -1136,19 +1141,19 @@
         <v>17</v>
       </c>
       <c r="B16" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+        <v>2.0</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="19">
-        <v>4.0</v>
-      </c>
+      <c r="G16" s="19"/>
       <c r="H16" s="17"/>
       <c r="I16" s="21">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1184,23 +1189,23 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" ref="D18:H18" si="2">C18-SUM(C5:C16)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1219,23 +1224,23 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="3"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
